--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -4,35 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17235" windowHeight="25845"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="Ticket2553" sheetId="1" r:id="rId1"/>
+    <sheet name="Package" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>A</t>
+    <t>Luxury Link</t>
   </si>
   <si>
-    <t>S</t>
+    <t>%%CLIENT_NAME%%</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>%%CLIENT_LOCATION_DISPLAY%%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,42 +37,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,12 +58,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,36 +361,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18240" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Package" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,8 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,11 +385,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -374,17 +396,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -7,29 +7,156 @@
     <workbookView xWindow="480" yWindow="135" windowWidth="18240" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="Package" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Luxury Link</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
+  <si>
+    <t>%%LLTG_COMPANY_NAME%%</t>
   </si>
   <si>
     <t>%%CLIENT_NAME%%</t>
   </si>
   <si>
     <t>%%CLIENT_LOCATION_DISPLAY%%</t>
+  </si>
+  <si>
+    <t>%%CLIENT_URL%%</t>
+  </si>
+  <si>
+    <t>SUGGESTED PACKAGE</t>
+  </si>
+  <si>
+    <t>Package Level:</t>
+  </si>
+  <si>
+    <t>Client Id (Internal Use)</t>
+  </si>
+  <si>
+    <t>Date Created:</t>
+  </si>
+  <si>
+    <t>Working Title:</t>
+  </si>
+  <si>
+    <t>%%PACKAGE_WORKING_TITLE%%</t>
+  </si>
+  <si>
+    <t>Room Nights:</t>
+  </si>
+  <si>
+    <t>Number of Guests:</t>
+  </si>
+  <si>
+    <t># of Children:</t>
+  </si>
+  <si>
+    <t>Children Ages:</t>
+  </si>
+  <si>
+    <t>%%PACKAGE_ID%%</t>
+  </si>
+  <si>
+    <t>%%BARTER_OR_REMIT%%</t>
+  </si>
+  <si>
+    <t>%%CLIENT_ID%%</t>
+  </si>
+  <si>
+    <t>%%DATE_CREATED%%</t>
+  </si>
+  <si>
+    <t>%%PACKAGE_NUM_NIGHTS%%</t>
+  </si>
+  <si>
+    <t>%%PACKAGE_NUM_GUESTS%%</t>
+  </si>
+  <si>
+    <t>INCLUSIONS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price Per Night</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%%INCLUSION_NAME%%</t>
+  </si>
+  <si>
+    <t>%%INCLUSION_PPN%%</t>
+  </si>
+  <si>
+    <t>%%INCLUSION_TOTAL%%</t>
+  </si>
+  <si>
+    <t>Total Accommodations:</t>
+  </si>
+  <si>
+    <t>BLACKOUT DATES</t>
+  </si>
+  <si>
+    <t>%%BLACKOUT_DATES%%</t>
+  </si>
+  <si>
+    <t>BLACKOUT WEEKDAYS</t>
+  </si>
+  <si>
+    <t>%%BLACKOUT_WEEKDAYS%%</t>
+  </si>
+  <si>
+    <t>BOOKING CONDITIONS</t>
+  </si>
+  <si>
+    <t>%%BOOKING_CONDITIONS%%</t>
+  </si>
+  <si>
+    <t>n-NIGHT PACKAGE</t>
+  </si>
+  <si>
+    <t>Validity:</t>
+  </si>
+  <si>
+    <t>%%START_DATE%%</t>
+  </si>
+  <si>
+    <t>%%END_DATE%%</t>
+  </si>
+  <si>
+    <t>Retail Value:</t>
+  </si>
+  <si>
+    <t>Low Price Guarantee Percent:</t>
+  </si>
+  <si>
+    <t>Auction Opening Bid:</t>
+  </si>
+  <si>
+    <t>Buy Now Percentage:</t>
+  </si>
+  <si>
+    <t>Nightly Rate (Flex):</t>
+  </si>
+  <si>
+    <t>Percent of Retail:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,35 +166,94 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,18 +261,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,39 +621,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C17:C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11" t="str">
+        <f>IF(B31=0,"",B32/B31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11" t="str">
+        <f>IF(B32=0,"",B33/B31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11" t="str">
+        <f>IF(B33=0,"",B34/B31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11" t="str">
+        <f>IF(B34=0,"",B35/B31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11" t="str">
+        <f>IF(B39=0,"",B40/B39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="11" t="str">
+        <f>IF(B40=0,"",B41/B39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11" t="str">
+        <f>IF(B41=0,"",B42/B39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="str">
+        <f>IF(B42=0,"",B43/B39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11" t="str">
+        <f>IF(B47=0,"",B48/B47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11" t="str">
+        <f>IF(B48=0,"",B49/B47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11" t="str">
+        <f>IF(B49=0,"",B50/B47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11" t="str">
+        <f>IF(B50=0,"",B51/B47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="11" t="str">
+        <f>IF(B55=0,"",B56/B55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11" t="str">
+        <f>IF(B56=0,"",B57/B55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="11" t="str">
+        <f>IF(B57=0,"",B58/B55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59" s="11" t="str">
+        <f>IF(B58=0,"",B59/B55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="11" t="str">
+        <f>IF(B63=0,"",B64/B63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11" t="str">
+        <f>IF(B64=0,"",B65/B63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="11" t="str">
+        <f>IF(B65=0,"",B66/B63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67" s="11" t="str">
+        <f>IF(B66=0,"",B67/B63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+      <c r="C72" s="11" t="str">
+        <f>IF(B71=0,"",B72/B71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+      <c r="C73" s="11" t="str">
+        <f>IF(B72=0,"",B73/B71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0</v>
+      </c>
+      <c r="C74" s="11" t="str">
+        <f>IF(B73=0,"",B74/B71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+      <c r="C75" s="11" t="str">
+        <f>IF(B74=0,"",B75/B71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="5">
+        <v>0</v>
+      </c>
+      <c r="C80" s="11" t="str">
+        <f>IF(B79=0,"",B80/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81" s="11" t="str">
+        <f>IF(B80=0,"",B81/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82" s="11" t="str">
+        <f>IF(B81=0,"",B82/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+      <c r="C83" s="11" t="str">
+        <f>IF(B82=0,"",B83/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88" s="11" t="str">
+        <f>IF(B87=0,"",B88/B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89" s="11" t="str">
+        <f>IF(B88=0,"",B89/B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90" s="11" t="str">
+        <f>IF(B89=0,"",B90/B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="C91" s="11" t="str">
+        <f>IF(B90=0,"",B91/B87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96" s="11" t="str">
+        <f>IF(B95=0,"",B96/B95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97" s="11" t="str">
+        <f>IF(B96=0,"",B97/B95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="11" t="str">
+        <f>IF(B97=0,"",B98/B95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="11" t="str">
+        <f>IF(B98=0,"",B99/B95)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A93:C93"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>%%LLTG_COMPANY_NAME%%</t>
   </si>
@@ -61,9 +61,6 @@
     <t>%%PACKAGE_ID%%</t>
   </si>
   <si>
-    <t>%%BARTER_OR_REMIT%%</t>
-  </si>
-  <si>
     <t>%%CLIENT_ID%%</t>
   </si>
   <si>
@@ -124,12 +121,6 @@
     <t>Validity:</t>
   </si>
   <si>
-    <t>%%START_DATE%%</t>
-  </si>
-  <si>
-    <t>%%END_DATE%%</t>
-  </si>
-  <si>
     <t>Retail Value:</t>
   </si>
   <si>
@@ -146,6 +137,12 @@
   </si>
   <si>
     <t>Percent of Retail:</t>
+  </si>
+  <si>
+    <t>%%PACKAGE_LEVEL%%</t>
+  </si>
+  <si>
+    <t>%%START_DATE%% - %%END_DATE%%</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +235,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +274,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -287,10 +300,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,10 +309,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,11 +330,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -638,133 +662,143 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:3" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C17:C17)</f>
@@ -772,749 +806,724 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>43</v>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
       </c>
-      <c r="C32" s="11" t="str">
+      <c r="C32" s="9" t="str">
         <f>IF(B31=0,"",B32/B31)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
       </c>
-      <c r="C33" s="11" t="str">
+      <c r="C33" s="9" t="str">
         <f>IF(B32=0,"",B33/B31)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
       </c>
-      <c r="C34" s="11" t="str">
+      <c r="C34" s="9" t="str">
         <f>IF(B33=0,"",B34/B31)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
       </c>
-      <c r="C35" s="11" t="str">
+      <c r="C35" s="9" t="str">
         <f>IF(B34=0,"",B35/B31)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>43</v>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
       </c>
-      <c r="C40" s="11" t="str">
+      <c r="C40" s="9" t="str">
         <f>IF(B39=0,"",B40/B39)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="11" t="str">
+      <c r="C41" s="9" t="str">
         <f>IF(B40=0,"",B41/B39)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
       </c>
-      <c r="C42" s="11" t="str">
+      <c r="C42" s="9" t="str">
         <f>IF(B41=0,"",B42/B39)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C43" s="9" t="str">
         <f>IF(B42=0,"",B43/B39)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>43</v>
+      <c r="C47" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C48" s="9" t="str">
         <f>IF(B47=0,"",B48/B47)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C49" s="9" t="str">
         <f>IF(B48=0,"",B49/B47)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
       </c>
-      <c r="C50" s="11" t="str">
+      <c r="C50" s="9" t="str">
         <f>IF(B49=0,"",B50/B47)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
       </c>
-      <c r="C51" s="11" t="str">
+      <c r="C51" s="9" t="str">
         <f>IF(B50=0,"",B51/B47)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="A53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>43</v>
+      <c r="C55" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
       </c>
-      <c r="C56" s="11" t="str">
+      <c r="C56" s="9" t="str">
         <f>IF(B55=0,"",B56/B55)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
       </c>
-      <c r="C57" s="11" t="str">
+      <c r="C57" s="9" t="str">
         <f>IF(B56=0,"",B57/B55)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
       </c>
-      <c r="C58" s="11" t="str">
+      <c r="C58" s="9" t="str">
         <f>IF(B57=0,"",B58/B55)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
       </c>
-      <c r="C59" s="11" t="str">
+      <c r="C59" s="9" t="str">
         <f>IF(B58=0,"",B59/B55)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>43</v>
+      <c r="C63" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
       </c>
-      <c r="C64" s="11" t="str">
+      <c r="C64" s="9" t="str">
         <f>IF(B63=0,"",B64/B63)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
       </c>
-      <c r="C65" s="11" t="str">
+      <c r="C65" s="9" t="str">
         <f>IF(B64=0,"",B65/B63)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
       </c>
-      <c r="C66" s="11" t="str">
+      <c r="C66" s="9" t="str">
         <f>IF(B65=0,"",B66/B63)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B67" s="5">
         <v>0</v>
       </c>
-      <c r="C67" s="11" t="str">
+      <c r="C67" s="9" t="str">
         <f>IF(B66=0,"",B67/B63)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="A69" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>43</v>
+      <c r="C71" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
       </c>
-      <c r="C72" s="11" t="str">
+      <c r="C72" s="9" t="str">
         <f>IF(B71=0,"",B72/B71)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B73" s="5">
         <v>0</v>
       </c>
-      <c r="C73" s="11" t="str">
+      <c r="C73" s="9" t="str">
         <f>IF(B72=0,"",B73/B71)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B74" s="5">
         <v>0</v>
       </c>
-      <c r="C74" s="11" t="str">
+      <c r="C74" s="9" t="str">
         <f>IF(B73=0,"",B74/B71)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B75" s="5">
         <v>0</v>
       </c>
-      <c r="C75" s="11" t="str">
+      <c r="C75" s="9" t="str">
         <f>IF(B74=0,"",B75/B71)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B79" s="5">
         <v>0</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>43</v>
+      <c r="C79" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B80" s="5">
         <v>0</v>
       </c>
-      <c r="C80" s="11" t="str">
+      <c r="C80" s="9" t="str">
         <f>IF(B79=0,"",B80/B79)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
       </c>
-      <c r="C81" s="11" t="str">
+      <c r="C81" s="9" t="str">
         <f>IF(B80=0,"",B81/B79)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B82" s="5">
         <v>0</v>
       </c>
-      <c r="C82" s="11" t="str">
+      <c r="C82" s="9" t="str">
         <f>IF(B81=0,"",B82/B79)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B83" s="5">
         <v>0</v>
       </c>
-      <c r="C83" s="11" t="str">
+      <c r="C83" s="9" t="str">
         <f>IF(B82=0,"",B83/B79)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
+      <c r="A85" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="14"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B87" s="5">
         <v>0</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>43</v>
+      <c r="C87" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B88" s="5">
         <v>0</v>
       </c>
-      <c r="C88" s="11" t="str">
+      <c r="C88" s="9" t="str">
         <f>IF(B87=0,"",B88/B87)</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
       </c>
-      <c r="C89" s="11" t="str">
+      <c r="C89" s="9" t="str">
         <f>IF(B88=0,"",B89/B87)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
       </c>
-      <c r="C90" s="11" t="str">
+      <c r="C90" s="9" t="str">
         <f>IF(B89=0,"",B90/B87)</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B91" s="5">
         <v>0</v>
       </c>
-      <c r="C91" s="11" t="str">
+      <c r="C91" s="9" t="str">
         <f>IF(B90=0,"",B91/B87)</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
+      <c r="A93" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>43</v>
+      <c r="C95" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
       </c>
-      <c r="C96" s="11" t="str">
+      <c r="C96" s="9" t="str">
         <f>IF(B95=0,"",B96/B95)</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
       </c>
-      <c r="C97" s="11" t="str">
+      <c r="C97" s="9" t="str">
         <f>IF(B96=0,"",B97/B95)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B98" s="5">
         <v>0</v>
       </c>
-      <c r="C98" s="11" t="str">
+      <c r="C98" s="9" t="str">
         <f>IF(B97=0,"",B98/B95)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
       </c>
-      <c r="C99" s="11" t="str">
+      <c r="C99" s="9" t="str">
         <f>IF(B98=0,"",B99/B95)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A15:C15"/>
+  <mergeCells count="38">
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A45:C45"/>
@@ -1524,14 +1533,38 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B78:C78"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B86:C86"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>%%LLTG_COMPANY_NAME%%</t>
   </si>
@@ -115,24 +115,12 @@
     <t>%%BOOKING_CONDITIONS%%</t>
   </si>
   <si>
-    <t>n-NIGHT PACKAGE</t>
-  </si>
-  <si>
-    <t>Validity:</t>
-  </si>
-  <si>
     <t>Retail Value:</t>
   </si>
   <si>
-    <t>Low Price Guarantee Percent:</t>
-  </si>
-  <si>
     <t>Auction Opening Bid:</t>
   </si>
   <si>
-    <t>Buy Now Percentage:</t>
-  </si>
-  <si>
     <t>Nightly Rate (Flex):</t>
   </si>
   <si>
@@ -143,6 +131,15 @@
   </si>
   <si>
     <t>%%START_DATE%% - %%END_DATE%%</t>
+  </si>
+  <si>
+    <t>Number of Nights:</t>
+  </si>
+  <si>
+    <t>Low Price Guarantee:</t>
+  </si>
+  <si>
+    <t>Buy Now Price:</t>
   </si>
 </sst>
 </file>
@@ -153,7 +150,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,13 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,6 +231,27 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -289,7 +300,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -305,42 +316,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -663,116 +688,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="21"/>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -786,7 +811,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -806,736 +831,599 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5">
+        <v>40</v>
+      </c>
+      <c r="B32" s="16">
+        <f>B31*C32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="str">
-        <f>IF(B31=0,"",B32/B31)</f>
-        <v/>
-      </c>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f>IF(B32=0,"",B33/B31)</f>
+        <v>34</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="15" t="str">
+        <f>IF(B31=0,"",B33/B31)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f>IF(B33=0,"",B34/B31)</f>
+        <v>41</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="15" t="str">
+        <f>IF(B31=0,"",B34/B31)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f>IF(B34=0,"",B35/B31)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="5">
+        <v>40</v>
+      </c>
+      <c r="B40" s="16">
+        <f>B39*C40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="str">
-        <f>IF(B39=0,"",B40/B39)</f>
-        <v/>
-      </c>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f>IF(B40=0,"",B41/B39)</f>
+        <v>34</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="15" t="str">
+        <f>IF(B39=0,"",B41/B39)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f>IF(B41=0,"",B42/B39)</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="15" t="str">
+        <f>IF(B39=0,"",B42/B39)</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f>IF(B42=0,"",B43/B39)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="5">
+        <v>40</v>
+      </c>
+      <c r="B48" s="16">
+        <f>B47*C48</f>
         <v>0</v>
       </c>
-      <c r="C48" s="9" t="str">
-        <f>IF(B47=0,"",B48/B47)</f>
-        <v/>
-      </c>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f>IF(B48=0,"",B49/B47)</f>
+        <v>34</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="15" t="str">
+        <f>IF(B47=0,"",B49/B47)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f>IF(B49=0,"",B50/B47)</f>
+        <v>41</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="15" t="str">
+        <f>IF(B47=0,"",B50/B47)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f>IF(B50=0,"",B51/B47)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="53" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="17"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="5">
+        <v>40</v>
+      </c>
+      <c r="B56" s="16">
+        <f>B55*C56</f>
         <v>0</v>
       </c>
-      <c r="C56" s="9" t="str">
-        <f>IF(B55=0,"",B56/B55)</f>
-        <v/>
-      </c>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f>IF(B56=0,"",B57/B55)</f>
+        <v>34</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="15" t="str">
+        <f>IF(B55=0,"",B57/B55)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f>IF(B57=0,"",B58/B55)</f>
+        <v>41</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="15" t="str">
+        <f>IF(B55=0,"",B58/B55)</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f>IF(B58=0,"",B59/B55)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="15"/>
     </row>
     <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="A61" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="5">
+        <v>40</v>
+      </c>
+      <c r="B64" s="16">
+        <f>B63*C64</f>
         <v>0</v>
       </c>
-      <c r="C64" s="9" t="str">
-        <f>IF(B63=0,"",B64/B63)</f>
-        <v/>
-      </c>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f>IF(B64=0,"",B65/B63)</f>
+        <v>34</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="15" t="str">
+        <f>IF(B63=0,"",B65/B63)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f>IF(B65=0,"",B66/B63)</f>
+        <v>41</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="15" t="str">
+        <f>IF(B63=0,"",B66/B63)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f>IF(B66=0,"",B67/B63)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="15"/>
     </row>
     <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="5">
+        <v>40</v>
+      </c>
+      <c r="B72" s="16">
+        <f>B71*C72</f>
         <v>0</v>
       </c>
-      <c r="C72" s="9" t="str">
-        <f>IF(B71=0,"",B72/B71)</f>
-        <v/>
-      </c>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f>IF(B72=0,"",B73/B71)</f>
+        <v>34</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="15" t="str">
+        <f>IF(B71=0,"",B73/B71)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f>IF(B73=0,"",B74/B71)</f>
+        <v>41</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="15" t="str">
+        <f>IF(B71=0,"",B74/B71)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f>IF(B74=0,"",B75/B71)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="77" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="A77" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="17"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="5">
+        <v>40</v>
+      </c>
+      <c r="B80" s="16">
+        <f>B79*C80</f>
         <v>0</v>
       </c>
-      <c r="C80" s="9" t="str">
-        <f>IF(B79=0,"",B80/B79)</f>
-        <v/>
-      </c>
+      <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0</v>
-      </c>
-      <c r="C81" s="9" t="str">
-        <f>IF(B80=0,"",B81/B79)</f>
+        <v>34</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="15" t="str">
+        <f>IF(B79=0,"",B81/B79)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82" s="9" t="str">
-        <f>IF(B81=0,"",B82/B79)</f>
+        <v>41</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="15" t="str">
+        <f>IF(B79=0,"",B82/B79)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f>IF(B82=0,"",B83/B79)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="A85" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="17"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="5">
+        <v>40</v>
+      </c>
+      <c r="B88" s="16">
+        <f>B87*C88</f>
         <v>0</v>
       </c>
-      <c r="C88" s="9" t="str">
-        <f>IF(B87=0,"",B88/B87)</f>
-        <v/>
-      </c>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89" s="9" t="str">
-        <f>IF(B88=0,"",B89/B87)</f>
+        <v>34</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="15" t="str">
+        <f>IF(B87=0,"",B89/B87)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90" s="9" t="str">
-        <f>IF(B89=0,"",B90/B87)</f>
+        <v>41</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="15" t="str">
+        <f>IF(B87=0,"",B90/B87)</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="5">
-        <v>0</v>
-      </c>
-      <c r="C91" s="9" t="str">
-        <f>IF(B90=0,"",B91/B87)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="15"/>
     </row>
     <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
+      <c r="A93" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="5">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="5">
+        <v>40</v>
+      </c>
+      <c r="B96" s="16">
+        <f>B95*C96</f>
         <v>0</v>
       </c>
-      <c r="C96" s="9" t="str">
-        <f>IF(B95=0,"",B96/B95)</f>
-        <v/>
-      </c>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97" s="9" t="str">
-        <f>IF(B96=0,"",B97/B95)</f>
+        <v>34</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="15" t="str">
+        <f>IF(B95=0,"",B97/B95)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0</v>
-      </c>
-      <c r="C98" s="9" t="str">
-        <f>IF(B97=0,"",B98/B95)</f>
+        <v>41</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="15" t="str">
+        <f>IF(B95=0,"",B98/B95)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99" s="9" t="str">
-        <f>IF(B98=0,"",B99/B95)</f>
-        <v/>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B46:C46"/>
+  <mergeCells count="29">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
@@ -1551,17 +1439,15 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -337,35 +337,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -676,7 +676,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,34 +688,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:3" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -728,69 +728,69 @@
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -838,11 +838,11 @@
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
@@ -857,11 +857,11 @@
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
@@ -871,11 +871,11 @@
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -1419,11 +1419,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
@@ -1439,15 +1443,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A93:C93"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -322,9 +322,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -334,9 +331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -361,11 +364,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -676,7 +676,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,34 +688,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -728,69 +728,69 @@
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -838,16 +838,16 @@
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
@@ -857,11 +857,11 @@
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
@@ -871,11 +871,11 @@
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -888,8 +888,8 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -904,18 +904,18 @@
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <f>B31*C32</f>
         <v>0</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="15" t="str">
+      <c r="C33" s="14" t="str">
         <f>IF(B31=0,"",B33/B31)</f>
         <v/>
       </c>
@@ -925,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="14" t="str">
         <f>IF(B31=0,"",B34/B31)</f>
         <v/>
       </c>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
@@ -948,8 +948,8 @@
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -964,18 +964,18 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <f>B39*C40</f>
         <v>0</v>
       </c>
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="15" t="str">
+      <c r="C41" s="14" t="str">
         <f>IF(B39=0,"",B41/B39)</f>
         <v/>
       </c>
@@ -985,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="15" t="str">
+      <c r="C42" s="14" t="str">
         <f>IF(B39=0,"",B42/B39)</f>
         <v/>
       </c>
@@ -995,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
@@ -1008,8 +1008,8 @@
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1024,18 +1024,18 @@
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <f>B47*C48</f>
         <v>0</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="15" t="str">
+      <c r="C49" s="14" t="str">
         <f>IF(B47=0,"",B49/B47)</f>
         <v/>
       </c>
@@ -1045,7 +1045,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="15" t="str">
+      <c r="C50" s="14" t="str">
         <f>IF(B47=0,"",B50/B47)</f>
         <v/>
       </c>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="14"/>
     </row>
     <row r="53" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
@@ -1068,8 +1068,8 @@
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1084,18 +1084,18 @@
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <f>B55*C56</f>
         <v>0</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="15" t="str">
+      <c r="C57" s="14" t="str">
         <f>IF(B55=0,"",B57/B55)</f>
         <v/>
       </c>
@@ -1105,7 +1105,7 @@
         <v>41</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="15" t="str">
+      <c r="C58" s="14" t="str">
         <f>IF(B55=0,"",B58/B55)</f>
         <v/>
       </c>
@@ -1115,7 +1115,7 @@
         <v>35</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="15"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
@@ -1128,8 +1128,8 @@
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1144,18 +1144,18 @@
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <f>B63*C64</f>
         <v>0</v>
       </c>
-      <c r="C64" s="14"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="15" t="str">
+      <c r="C65" s="14" t="str">
         <f>IF(B63=0,"",B65/B63)</f>
         <v/>
       </c>
@@ -1165,7 +1165,7 @@
         <v>41</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="15" t="str">
+      <c r="C66" s="14" t="str">
         <f>IF(B63=0,"",B66/B63)</f>
         <v/>
       </c>
@@ -1175,7 +1175,7 @@
         <v>35</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="15"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
@@ -1188,8 +1188,8 @@
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1204,18 +1204,18 @@
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <f>B71*C72</f>
         <v>0</v>
       </c>
-      <c r="C72" s="14"/>
+      <c r="C72" s="13"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="15" t="str">
+      <c r="C73" s="14" t="str">
         <f>IF(B71=0,"",B73/B71)</f>
         <v/>
       </c>
@@ -1225,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="15" t="str">
+      <c r="C74" s="14" t="str">
         <f>IF(B71=0,"",B74/B71)</f>
         <v/>
       </c>
@@ -1235,7 +1235,7 @@
         <v>35</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="15"/>
+      <c r="C75" s="14"/>
     </row>
     <row r="77" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -1248,8 +1248,8 @@
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="17"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -1264,18 +1264,18 @@
       <c r="A80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <f>B79*C80</f>
         <v>0</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="15" t="str">
+      <c r="C81" s="14" t="str">
         <f>IF(B79=0,"",B81/B79)</f>
         <v/>
       </c>
@@ -1285,7 +1285,7 @@
         <v>41</v>
       </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="15" t="str">
+      <c r="C82" s="14" t="str">
         <f>IF(B79=0,"",B82/B79)</f>
         <v/>
       </c>
@@ -1295,7 +1295,7 @@
         <v>35</v>
       </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -1308,8 +1308,8 @@
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="17"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -1324,18 +1324,18 @@
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <f>B87*C88</f>
         <v>0</v>
       </c>
-      <c r="C88" s="14"/>
+      <c r="C88" s="13"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="15" t="str">
+      <c r="C89" s="14" t="str">
         <f>IF(B87=0,"",B89/B87)</f>
         <v/>
       </c>
@@ -1345,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="15" t="str">
+      <c r="C90" s="14" t="str">
         <f>IF(B87=0,"",B90/B87)</f>
         <v/>
       </c>
@@ -1355,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
@@ -1368,8 +1368,8 @@
       <c r="A94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="17"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="16"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -1384,18 +1384,18 @@
       <c r="A96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <f>B95*C96</f>
         <v>0</v>
       </c>
-      <c r="C96" s="14"/>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="15" t="str">
+      <c r="C97" s="14" t="str">
         <f>IF(B95=0,"",B97/B95)</f>
         <v/>
       </c>
@@ -1405,7 +1405,7 @@
         <v>41</v>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="15" t="str">
+      <c r="C98" s="14" t="str">
         <f>IF(B95=0,"",B98/B95)</f>
         <v/>
       </c>
@@ -1415,19 +1415,15 @@
         <v>35</v>
       </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="15"/>
+      <c r="C99" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
@@ -1443,11 +1439,15 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -300,7 +300,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -334,39 +334,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -718,11 +719,11 @@
       <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -793,11 +794,11 @@
       <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -817,7 +818,7 @@
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -825,24 +826,24 @@
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="30">
         <f>SUM(C17:C17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -850,45 +851,45 @@
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,17 +939,17 @@
       <c r="C35" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,17 +999,17 @@
       <c r="C43" s="14"/>
     </row>
     <row r="45" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,17 +1059,17 @@
       <c r="C51" s="14"/>
     </row>
     <row r="53" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1118,17 +1119,17 @@
       <c r="C59" s="14"/>
     </row>
     <row r="61" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,17 +1179,17 @@
       <c r="C67" s="14"/>
     </row>
     <row r="69" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="29"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,17 +1239,17 @@
       <c r="C75" s="14"/>
     </row>
     <row r="77" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="29"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="16"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,17 +1299,17 @@
       <c r="C83" s="14"/>
     </row>
     <row r="85" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="29"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,17 +1359,17 @@
       <c r="C91" s="14"/>
     </row>
     <row r="93" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="29"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,11 +1420,15 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
@@ -1439,15 +1444,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A93:C93"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>%%LLTG_COMPANY_NAME%%</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Number of Guests:</t>
   </si>
   <si>
-    <t># of Children:</t>
-  </si>
-  <si>
     <t>Children Ages:</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
   </si>
   <si>
     <t>%%PACKAGE_FLEX_INFO%%</t>
-  </si>
-  <si>
-    <t>%%PACKAGE_NUM_CHILDREN%%</t>
   </si>
   <si>
     <t>%%PACKAGE_CHILDREN_AGES%%</t>
@@ -363,37 +357,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -699,10 +693,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,12 +708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="31.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21">
@@ -744,760 +738,750 @@
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" ht="23.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="B8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="21"/>
+      <c r="B11" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="21"/>
+      <c r="B13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="23.25">
-      <c r="A17" s="22" t="s">
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="23.25">
+      <c r="A16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18">
+        <f>SUM(C18:C18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25">
+      <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="18">
-        <f>SUM(C19:C19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="23.25">
-      <c r="A22" s="22" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.25">
+      <c r="A24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.25">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="23" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="27" spans="1:3" ht="23.25">
+      <c r="A27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="28" spans="1:3" ht="23.25">
-      <c r="A28" s="22" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="31" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A31" s="30" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="30" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="13">
+        <f>B32*C33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="13">
-        <f>B33*C34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12" t="str">
+        <f>IF(B32=0,"",B34/B32)</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="12" t="str">
-        <f>IF(B33=0,"",B35/B33)</f>
+        <f>IF(B32=0,"",B35/B32)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="12" t="str">
-        <f>IF(B33=0,"",B36/B33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="39" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A39" s="30" t="s">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="38" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="13">
+        <f>B40*C41</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13">
-        <f>B41*C42</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="11"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="str">
+        <f>IF(B40=0,"",B42/B40)</f>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="12" t="str">
-        <f>IF(B41=0,"",B43/B41)</f>
+        <f>IF(B40=0,"",B43/B40)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="12" t="str">
-        <f>IF(B41=0,"",B44/B41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-    </row>
-    <row r="47" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A47" s="30" t="s">
+      <c r="C44" s="12"/>
+    </row>
+    <row r="46" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A46" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="13">
+        <f>B48*C49</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="13">
-        <f>B49*C50</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="12" t="str">
+        <f>IF(B48=0,"",B50/B48)</f>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="12" t="str">
-        <f>IF(B49=0,"",B51/B49)</f>
+        <f>IF(B48=0,"",B51/B48)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="12" t="str">
-        <f>IF(B49=0,"",B52/B49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-    </row>
-    <row r="55" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A55" s="30" t="s">
+      <c r="C52" s="12"/>
+    </row>
+    <row r="54" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A54" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="13">
+        <f>B56*C57</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="13">
-        <f>B57*C58</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="11"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12" t="str">
+        <f>IF(B56=0,"",B58/B56)</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="12" t="str">
-        <f>IF(B57=0,"",B59/B57)</f>
+        <f>IF(B56=0,"",B59/B56)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="12" t="str">
-        <f>IF(B57=0,"",B60/B57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
-    </row>
-    <row r="63" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A63" s="30" t="s">
+      <c r="C60" s="12"/>
+    </row>
+    <row r="62" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A62" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="13">
+        <f>B64*C65</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="11"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="13">
-        <f>B65*C66</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="11"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="12" t="str">
+        <f>IF(B64=0,"",B66/B64)</f>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="12" t="str">
-        <f>IF(B65=0,"",B67/B65)</f>
+        <f>IF(B64=0,"",B67/B64)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="12" t="str">
-        <f>IF(B65=0,"",B68/B65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="12"/>
-    </row>
-    <row r="71" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A71" s="30" t="s">
+      <c r="C68" s="12"/>
+    </row>
+    <row r="70" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A70" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="14"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="13">
+        <f>B72*C73</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="13">
-        <f>B73*C74</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="11"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="12" t="str">
+        <f>IF(B72=0,"",B74/B72)</f>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="12" t="str">
-        <f>IF(B73=0,"",B75/B73)</f>
+        <f>IF(B72=0,"",B75/B72)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="12" t="str">
-        <f>IF(B73=0,"",B76/B73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="12"/>
-    </row>
-    <row r="79" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A79" s="30" t="s">
+      <c r="C76" s="12"/>
+    </row>
+    <row r="78" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="13">
+        <f>B80*C81</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="13">
-        <f>B81*C82</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="11"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="12" t="str">
+        <f>IF(B80=0,"",B82/B80)</f>
+        <v/>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="12" t="str">
-        <f>IF(B81=0,"",B83/B81)</f>
+        <f>IF(B80=0,"",B83/B80)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="12" t="str">
-        <f>IF(B81=0,"",B84/B81)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="12"/>
-    </row>
-    <row r="87" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A87" s="30" t="s">
+      <c r="C84" s="12"/>
+    </row>
+    <row r="86" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A86" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="13">
+        <f>B88*C89</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="13">
-        <f>B89*C90</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="11"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="12" t="str">
+        <f>IF(B88=0,"",B90/B88)</f>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="12" t="str">
-        <f>IF(B89=0,"",B91/B89)</f>
+        <f>IF(B88=0,"",B91/B88)</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B92" s="4"/>
-      <c r="C92" s="12" t="str">
-        <f>IF(B89=0,"",B92/B89)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="95" spans="1:3" s="31" customFormat="1" ht="23.25">
-      <c r="A95" s="30" t="s">
+      <c r="C92" s="12"/>
+    </row>
+    <row r="94" spans="1:3" s="21" customFormat="1" ht="23.25">
+      <c r="A94" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="13">
+        <f>B96*C97</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="11"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="13">
-        <f>B97*C98</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="11"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="12" t="str">
+        <f>IF(B96=0,"",B98/B96)</f>
+        <v/>
+      </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="12" t="str">
-        <f>IF(B97=0,"",B99/B97)</f>
+        <f>IF(B96=0,"",B99/B96)</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B100" s="4"/>
-      <c r="C100" s="12" t="str">
-        <f>IF(B97=0,"",B100/B97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="12"/>
+      <c r="C100" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A95:C95"/>
+  <mergeCells count="30">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18240" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="14880" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>%%LLTG_COMPANY_NAME%%</t>
   </si>
@@ -103,18 +103,12 @@
     <t>Auction Opening Bid:</t>
   </si>
   <si>
-    <t>Nightly Rate (Flex):</t>
-  </si>
-  <si>
     <t>Percent of Retail:</t>
   </si>
   <si>
     <t>%%PACKAGE_LEVEL%%</t>
   </si>
   <si>
-    <t>%%START_DATE%% - %%END_DATE%%</t>
-  </si>
-  <si>
     <t>Number of Nights:</t>
   </si>
   <si>
@@ -152,17 +146,36 @@
   </si>
   <si>
     <t>%%PACKAGE_CURRENCY%%</t>
+  </si>
+  <si>
+    <t>Total Accommodations:</t>
+  </si>
+  <si>
+    <t>Room Type:</t>
+  </si>
+  <si>
+    <t>Rate Per Night:</t>
+  </si>
+  <si>
+    <t>Additional Flex Night:</t>
+  </si>
+  <si>
+    <t>Validity Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %%START_DATE%% - %%END_DATE%%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,7 +331,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,32 +372,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -480,6 +502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -514,6 +537,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,17 +713,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -707,132 +731,132 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="31.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="18.75">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="15.75">
-      <c r="A5" s="27" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="23.25">
-      <c r="A6" s="24" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="30"/>
-    </row>
-    <row r="11" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="30"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="B14" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" ht="23.25">
-      <c r="A16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
@@ -843,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -854,614 +878,955 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="18">
         <f>SUM(C18:C18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="23.25">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="31" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" ht="23.25">
-      <c r="A24" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="31" t="s">
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="27" spans="1:3" ht="23.25">
-      <c r="A27" s="24" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="31" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="30" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A30" s="22" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+    </row>
+    <row r="30" spans="1:3" s="21" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="13">
+        <f>B35*C36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="str">
+        <f>IF(B35=0,"",B37/B35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="str">
+        <f>IF(B35=0,"",B38/B35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="42" spans="1:3" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="13">
-        <f>B32*C33</f>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="13">
+        <f>B46*C47</f>
         <v>0</v>
       </c>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="12" t="str">
-        <f>IF(B32=0,"",B34/B32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="12" t="str">
-        <f>IF(B32=0,"",B35/B32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="12" t="str">
+        <f>IF(B46=0,"",B48/B46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12" t="str">
+        <f>IF(B46=0,"",B49/B46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="14"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="38" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A38" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="13">
-        <f>B40*C41</f>
+    </row>
+    <row r="58" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="13">
+        <f>B57*C58</f>
         <v>0</v>
       </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="12" t="str">
-        <f>IF(B40=0,"",B42/B40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="12" t="str">
-        <f>IF(B40=0,"",B43/B40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="46" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A46" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="13">
-        <f>B48*C49</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="12" t="str">
-        <f>IF(B48=0,"",B50/B48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="12" t="str">
-        <f>IF(B48=0,"",B51/B48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="54" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A54" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="13">
-        <f>B56*C57</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="12" t="str">
-        <f>IF(B56=0,"",B58/B56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="12" t="str">
-        <f>IF(B56=0,"",B59/B56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <f>IF(B57=0,"",B59/B57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12" t="str">
+        <f>IF(B57=0,"",B60/B57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="12"/>
-    </row>
-    <row r="62" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A62" s="22" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="13">
+        <f>B68*C69</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="12" t="str">
+        <f>IF(B68=0,"",B70/B68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="12" t="str">
+        <f>IF(B68=0,"",B71/B68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="13">
-        <f>B64*C65</f>
+      <c r="B79" s="4"/>
+      <c r="C79" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="13">
+        <f>B79*C80</f>
         <v>0</v>
       </c>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="12" t="str">
-        <f>IF(B64=0,"",B66/B64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="12" t="str">
-        <f>IF(B64=0,"",B67/B64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="70" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A70" s="22" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="12" t="str">
+        <f>IF(B79=0,"",B81/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="13">
-        <f>B72*C73</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="12" t="str">
-        <f>IF(B72=0,"",B74/B72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="12" t="str">
-        <f>IF(B72=0,"",B75/B72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="78" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A78" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="13">
-        <f>B80*C81</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="12" t="str">
-        <f>IF(B80=0,"",B82/B80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <f>IF(B79=0,"",B82/B79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="12" t="str">
-        <f>IF(B80=0,"",B83/B80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="12"/>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
     </row>
-    <row r="86" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="13">
+        <f>B90*C91</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="12" t="str">
+        <f>IF(B90=0,"",B92/B90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="12" t="str">
+        <f>IF(B90=0,"",B93/B90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="12"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="12"/>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+    </row>
+    <row r="98" spans="1:3" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="14"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="13">
-        <f>B88*C89</f>
+      <c r="B101" s="4"/>
+      <c r="C101" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" s="13">
+        <f>B101*C102</f>
         <v>0</v>
       </c>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="12" t="str">
-        <f>IF(B88=0,"",B90/B88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="12" t="str">
-        <f>IF(B88=0,"",B91/B88)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="12" t="str">
+        <f>IF(B101=0,"",B103/B101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="12" t="str">
+        <f>IF(B101=0,"",B104/B101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="12"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="12"/>
+    </row>
+    <row r="108" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="12"/>
-    </row>
-    <row r="94" spans="1:3" s="21" customFormat="1" ht="23.25">
-      <c r="A94" s="22" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="13">
+        <f>B112*C113</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="12" t="str">
+        <f>IF(B112=0,"",B114/B112)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="14"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="B115" s="4"/>
+      <c r="C115" s="12" t="str">
+        <f>IF(B112=0,"",B115/B112)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="12"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="12"/>
+    </row>
+    <row r="119" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" s="13">
-        <f>B96*C97</f>
+      <c r="B123" s="4"/>
+      <c r="C123" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" s="13">
+        <f>B123*C124</f>
         <v>0</v>
       </c>
-      <c r="C97" s="11"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="12" t="str">
-        <f>IF(B96=0,"",B98/B96)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="12" t="str">
-        <f>IF(B96=0,"",B99/B96)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
+      <c r="B125" s="4"/>
+      <c r="C125" s="12" t="str">
+        <f>IF(B123=0,"",B125/B123)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="12" t="str">
+        <f>IF(B123=0,"",B126/B123)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="12"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="12"/>
+    </row>
+    <row r="130" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="24"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="14"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="17"/>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="12"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="13">
+        <f>B134*C135</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="11"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="12" t="str">
+        <f>IF(B134=0,"",B136/B134)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="12" t="str">
+        <f>IF(B134=0,"",B137/B134)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="12"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="12"/>
+    </row>
+    <row r="140" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="23"/>
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="22"/>
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="17"/>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="13"/>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="12"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="12"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="12"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="12"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="A108:C108"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A141:C141"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A119:C119"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A3:C3"/>
@@ -1477,11 +1842,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/views/packages/xls/Package.xlsx
+++ b/app/views/packages/xls/Package.xlsx
@@ -381,12 +381,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -396,20 +405,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -719,8 +719,8 @@
   </sheetPr>
   <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:C130"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,129 +732,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" spans="1:3" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -888,18 +888,18 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
@@ -907,39 +907,39 @@
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="30" spans="1:3" s="21" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
@@ -950,74 +950,74 @@
     </row>
     <row r="32" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="13">
-        <f>B35*C36</f>
+      <c r="B37" s="13">
+        <f>B34*C37</f>
         <v>0</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12" t="str">
-        <f>IF(B35=0,"",B37/B35)</f>
-        <v/>
-      </c>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="12" t="str">
-        <f>IF(B35=0,"",B38/B35)</f>
+        <f>IF(B34=0,"",B38/B34)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="12" t="str">
+        <f>IF(B34=0,"",B39/B34)</f>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="12"/>
@@ -1031,74 +1031,74 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B44" s="17"/>
       <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="13">
-        <f>B46*C47</f>
+      <c r="B48" s="13">
+        <f>B45*C48</f>
         <v>0</v>
       </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="12" t="str">
-        <f>IF(B46=0,"",B48/B46)</f>
-        <v/>
-      </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="12" t="str">
-        <f>IF(B46=0,"",B49/B46)</f>
+        <f>IF(B45=0,"",B49/B45)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="12" t="str">
+        <f>IF(B45=0,"",B50/B45)</f>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="12"/>
@@ -1112,74 +1112,74 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B54" s="22"/>
       <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B55" s="17"/>
       <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="13">
-        <f>B57*C58</f>
+      <c r="B59" s="13">
+        <f>B56*C59</f>
         <v>0</v>
       </c>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="12" t="str">
-        <f>IF(B57=0,"",B59/B57)</f>
-        <v/>
-      </c>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="12" t="str">
-        <f>IF(B57=0,"",B60/B57)</f>
+        <f>IF(B56=0,"",B60/B56)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="12" t="str">
+        <f>IF(B56=0,"",B61/B56)</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="12"/>
@@ -1193,74 +1193,74 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B66" s="17"/>
       <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="13">
-        <f>B68*C69</f>
+      <c r="B70" s="13">
+        <f>B67*C70</f>
         <v>0</v>
       </c>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="12" t="str">
-        <f>IF(B68=0,"",B70/B68)</f>
-        <v/>
-      </c>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="12" t="str">
-        <f>IF(B68=0,"",B71/B68)</f>
+        <f>IF(B67=0,"",B71/B67)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="12" t="str">
+        <f>IF(B67=0,"",B72/B67)</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="12"/>
@@ -1279,74 +1279,74 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B76" s="22"/>
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B77" s="17"/>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="12"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="13">
-        <f>B79*C80</f>
+      <c r="B81" s="13">
+        <f>B78*C81</f>
         <v>0</v>
       </c>
-      <c r="C80" s="11"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="12" t="str">
-        <f>IF(B79=0,"",B81/B79)</f>
-        <v/>
-      </c>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="12" t="str">
-        <f>IF(B79=0,"",B82/B79)</f>
+        <f>IF(B78=0,"",B82/B78)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="12" t="str">
+        <f>IF(B78=0,"",B83/B78)</f>
+        <v/>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="12"/>
@@ -1360,74 +1360,74 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B87" s="22"/>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B88" s="17"/>
       <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="90" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B90" s="4"/>
-      <c r="C90" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="12"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="13">
-        <f>B90*C91</f>
+      <c r="B92" s="13">
+        <f>B89*C92</f>
         <v>0</v>
       </c>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="12" t="str">
-        <f>IF(B90=0,"",B92/B90)</f>
-        <v/>
-      </c>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="12" t="str">
-        <f>IF(B90=0,"",B93/B90)</f>
+        <f>IF(B89=0,"",B93/B89)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="12" t="str">
+        <f>IF(B89=0,"",B94/B89)</f>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="12"/>
@@ -1439,76 +1439,76 @@
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
     </row>
-    <row r="98" spans="1:3" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B98" s="22"/>
       <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B99" s="17"/>
       <c r="C99" s="14"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B101" s="4"/>
-      <c r="C101" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C101" s="14"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="12"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="13">
-        <f>B101*C102</f>
+      <c r="B103" s="13">
+        <f>B100*C103</f>
         <v>0</v>
       </c>
-      <c r="C102" s="11"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="12" t="str">
-        <f>IF(B101=0,"",B103/B101)</f>
-        <v/>
-      </c>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="12" t="str">
-        <f>IF(B101=0,"",B104/B101)</f>
+        <f>IF(B100=0,"",B104/B100)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="C105" s="12"/>
+      <c r="C105" s="12" t="str">
+        <f>IF(B100=0,"",B105/B100)</f>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="12"/>
@@ -1522,74 +1522,74 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B109" s="22"/>
       <c r="C109" s="14"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B110" s="17"/>
       <c r="C110" s="14"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="C112" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C112" s="14"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="12"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="13">
-        <f>B112*C113</f>
+      <c r="B114" s="13">
+        <f>B111*C114</f>
         <v>0</v>
       </c>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="12" t="str">
-        <f>IF(B112=0,"",B114/B112)</f>
-        <v/>
-      </c>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="12" t="str">
-        <f>IF(B112=0,"",B115/B112)</f>
+        <f>IF(B111=0,"",B115/B111)</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="C116" s="12"/>
+      <c r="C116" s="12" t="str">
+        <f>IF(B111=0,"",B116/B111)</f>
+        <v/>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="12"/>
@@ -1603,74 +1603,74 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B120" s="22"/>
       <c r="C120" s="14"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B121" s="17"/>
       <c r="C121" s="14"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C123" s="14"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="12"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B124" s="13">
-        <f>B123*C124</f>
+      <c r="B125" s="13">
+        <f>B122*C125</f>
         <v>0</v>
       </c>
-      <c r="C124" s="11"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="12" t="str">
-        <f>IF(B123=0,"",B125/B123)</f>
-        <v/>
-      </c>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="12" t="str">
-        <f>IF(B123=0,"",B126/B123)</f>
+        <f>IF(B122=0,"",B126/B122)</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B127" s="4"/>
-      <c r="C127" s="12"/>
+      <c r="C127" s="12" t="str">
+        <f>IF(B122=0,"",B127/B122)</f>
+        <v/>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="12"/>
@@ -1684,74 +1684,74 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B131" s="22"/>
       <c r="C131" s="14"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B132" s="17"/>
       <c r="C132" s="14"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B134" s="4"/>
-      <c r="C134" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="C134" s="14"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="12"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B135" s="13">
-        <f>B134*C135</f>
+      <c r="B136" s="13">
+        <f>B133*C136</f>
         <v>0</v>
       </c>
-      <c r="C135" s="11"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="12" t="str">
-        <f>IF(B134=0,"",B136/B134)</f>
-        <v/>
-      </c>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="12" t="str">
-        <f>IF(B134=0,"",B137/B134)</f>
+        <f>IF(B133=0,"",B137/B133)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B138" s="4"/>
-      <c r="C138" s="12"/>
+      <c r="C138" s="12" t="str">
+        <f>IF(B133=0,"",B138/B133)</f>
+        <v/>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="12"/>
@@ -1809,6 +1809,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A108:C108"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A130:C130"/>
@@ -1825,23 +1842,6 @@
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
